--- a/Documents/assets credits.xlsx
+++ b/Documents/assets credits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -140,14 +140,38 @@
     <t>https://kenney.nl/assets/roguelike-modern-city</t>
   </si>
   <si>
-    <t>Mishmar HaGvul</t>
+    <t>https://www.freepik.com/free-vector/falling-stars-beautiful-night-background_5376553.htm</t>
+  </si>
+  <si>
+    <t>scene_1+scene_1_dark</t>
+  </si>
+  <si>
+    <t>https://www.freepik.com/free-vector/nature-landscape-with-river-mouth-flow-into-pond_31904243.htm</t>
+  </si>
+  <si>
+    <t>night_sky.jpg</t>
+  </si>
+  <si>
+    <t>https://www.freepik.com/free-vector/landscape-with-surfboards-sandy-beach-palm-trees_21457891.htm</t>
+  </si>
+  <si>
+    <t>day_sky.jpg</t>
+  </si>
+  <si>
+    <t>sunny_sky.jpg</t>
+  </si>
+  <si>
+    <t>rainy_sky.jpg</t>
+  </si>
+  <si>
+    <t>Crop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +199,15 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -282,10 +315,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -293,6 +327,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -302,21 +337,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -626,11 +668,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -666,19 +708,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -706,7 +748,7 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
@@ -739,10 +781,10 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -750,17 +792,17 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -768,84 +810,127 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>38</v>
+      <c r="A20" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B25" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>